--- a/pdf/gcs_data.xlsx
+++ b/pdf/gcs_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\divyesh\gcspanrel\public\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,64 +19,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>fullName</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>leadType</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>leadAddress</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>leadNotes</t>
-  </si>
-  <si>
-    <t>demo@gmail.com</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Lead Type</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Your Business Name</t>
+  </si>
+  <si>
+    <t>Goal/Annual Income</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Client  Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Marketing Guru</t>
+  </si>
+  <si>
+    <t>Divyesh baraiya</t>
+  </si>
+  <si>
+    <t>Not valid</t>
+  </si>
+  <si>
+    <t>Find Me</t>
+  </si>
+  <si>
+    <t>₹1500 Cr</t>
+  </si>
+  <si>
+    <t>divyeshbaraiya@gmail.com</t>
   </si>
   <si>
     <t>surat</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Demo 1</t>
-  </si>
-  <si>
-    <t>Marketing Guru</t>
-  </si>
-  <si>
-    <t>Potential</t>
-  </si>
-  <si>
-    <t>10-15-2023</t>
+    <t xml:space="preserve">Potential </t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Industry/Company Name</t>
+  </si>
+  <si>
+    <t>09-16-2023</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -89,16 +108,61 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,16 +170,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -332,199 +466,222 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1">
-        <v>8574857485</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
+      <c r="H2" s="1">
+        <v>7486873619</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>